--- a/(UEL) cube_C3D8T_multiphysics/processing_input/controls.xlsx
+++ b/(UEL) cube_C3D8T_multiphysics/processing_input/controls.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\daglim1\Bachelor-Thesis-Mert-Dagli-2025\5. steel 4420 geometries combined\CHD6_combined\processing_input_enHill48\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEB8923-58F7-4BE2-B95F-62215BD27C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -447,12 +441,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,12 +464,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -522,103 +510,113 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="33">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -629,10 +627,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -670,71 +668,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -762,7 +760,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -785,11 +783,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -798,13 +796,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -814,7 +812,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -823,7 +821,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -832,7 +830,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -840,10 +838,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -908,45 +906,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="82.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="58.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="55.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="42.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="48.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="24" width="33.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="24" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="25" width="39.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="26" width="37.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="27" width="33.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="28" width="76.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="28" width="34.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="29" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="28" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="24" width="73.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="25" width="35.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="30" width="31.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="24" width="31.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="24" width="82.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="24" width="31.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="30" width="31.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="24" width="37.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="24" width="58.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="25" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="31" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="24" width="39.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="24" width="55.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="25" width="42.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="32" width="48.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,7 +1016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="75">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -1031,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="9">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>27</v>
@@ -1043,7 +1039,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>27</v>
@@ -1055,7 +1051,7 @@
         <v>26</v>
       </c>
       <c r="L2" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>29</v>
@@ -1067,7 +1063,7 @@
         <v>26</v>
       </c>
       <c r="P2" s="10">
-        <v>1.0000000000000001E-5</v>
+        <v>0.00001</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>31</v>
@@ -1094,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="75">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -1141,7 +1137,7 @@
         <v>26</v>
       </c>
       <c r="P3" s="10">
-        <v>1.0000000000000001E-5</v>
+        <v>0.00001</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>41</v>
@@ -1168,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="60.75">
       <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
@@ -1215,7 +1211,7 @@
         <v>26</v>
       </c>
       <c r="P4" s="10">
-        <v>1.0000000000000001E-5</v>
+        <v>0.00001</v>
       </c>
       <c r="Q4" s="8" t="s">
         <v>51</v>
@@ -1239,10 +1235,10 @@
         <v>26</v>
       </c>
       <c r="X4" s="13">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="102.75">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
@@ -1281,7 +1277,7 @@
         <v>26</v>
       </c>
       <c r="P5" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>60</v>
@@ -1308,7 +1304,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60.75">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
@@ -1374,7 +1370,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="75">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -1389,7 +1385,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="10">
-        <v>1.0000000000000001E-5</v>
+        <v>0.00001</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>72</v>
@@ -1401,7 +1397,7 @@
         <v>26</v>
       </c>
       <c r="L7" s="10">
-        <v>1.0000000000000001E-5</v>
+        <v>0.00001</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>74</v>
@@ -1432,7 +1428,7 @@
       <c r="W7" s="16"/>
       <c r="X7" s="17"/>
     </row>
-    <row r="8" spans="1:24" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="58.15">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
@@ -1447,7 +1443,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="10">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>78</v>
@@ -1459,7 +1455,7 @@
         <v>26</v>
       </c>
       <c r="L8" s="10">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>80</v>
@@ -1471,7 +1467,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="10">
-        <v>1.0000000000000001E-5</v>
+        <v>0.00001</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>82</v>
@@ -1490,7 +1486,7 @@
       <c r="W8" s="16"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:24" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="74.45">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -1505,7 +1501,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="10">
-        <v>1E-8</v>
+        <v>1e-8</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>84</v>
@@ -1517,7 +1513,7 @@
         <v>26</v>
       </c>
       <c r="L9" s="10">
-        <v>1E-8</v>
+        <v>1e-8</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>86</v>
@@ -1548,7 +1544,7 @@
       <c r="W9" s="16"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:24" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="57.6">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -1598,7 +1594,7 @@
       <c r="W10" s="16"/>
       <c r="X10" s="17"/>
     </row>
-    <row r="11" spans="1:24" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="60.6">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
@@ -1613,7 +1609,7 @@
         <v>26</v>
       </c>
       <c r="H11" s="10">
-        <v>1.0000000000000001E-5</v>
+        <v>0.00001</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>94</v>
@@ -1625,7 +1621,7 @@
         <v>26</v>
       </c>
       <c r="L11" s="10">
-        <v>1.0000000000000001E-5</v>
+        <v>0.00001</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
@@ -1648,7 +1644,7 @@
       <c r="W11" s="16"/>
       <c r="X11" s="17"/>
     </row>
-    <row r="12" spans="1:24" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="56.45000000000001">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
@@ -1663,7 +1659,7 @@
         <v>26</v>
       </c>
       <c r="H12" s="10">
-        <v>1E-8</v>
+        <v>1e-8</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>98</v>
@@ -1675,7 +1671,7 @@
         <v>26</v>
       </c>
       <c r="L12" s="10">
-        <v>1E-8</v>
+        <v>1e-8</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -1698,7 +1694,7 @@
       <c r="W12" s="16"/>
       <c r="X12" s="17"/>
     </row>
-    <row r="13" spans="1:24" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="57.6">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
@@ -1732,7 +1728,7 @@
       <c r="W13" s="16"/>
       <c r="X13" s="17"/>
     </row>
-    <row r="14" spans="1:24" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="40.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
@@ -1766,7 +1762,7 @@
       <c r="W14" s="16"/>
       <c r="X14" s="17"/>
     </row>
-    <row r="15" spans="1:24" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="37.15">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
@@ -1800,7 +1796,7 @@
       <c r="W15" s="16"/>
       <c r="X15" s="17"/>
     </row>
-    <row r="16" spans="1:24" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="37.15">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
@@ -1834,7 +1830,7 @@
       <c r="W16" s="16"/>
       <c r="X16" s="17"/>
     </row>
-    <row r="17" spans="1:24" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="49.15">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -1868,7 +1864,7 @@
       <c r="W17" s="16"/>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:24" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="43.15">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
@@ -1902,7 +1898,7 @@
       <c r="W18" s="16"/>
       <c r="X18" s="17"/>
     </row>
-    <row r="19" spans="1:24" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="50.45000000000001">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
@@ -1936,7 +1932,7 @@
       <c r="W19" s="16"/>
       <c r="X19" s="17"/>
     </row>
-    <row r="20" spans="1:24" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="38.45">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
@@ -1970,7 +1966,7 @@
       <c r="W20" s="16"/>
       <c r="X20" s="17"/>
     </row>
-    <row r="21" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="51">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
@@ -2004,7 +2000,7 @@
       <c r="W21" s="16"/>
       <c r="X21" s="17"/>
     </row>
-    <row r="22" spans="1:24" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="62.45000000000001">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
@@ -2038,7 +2034,7 @@
       <c r="W22" s="16"/>
       <c r="X22" s="17"/>
     </row>
-    <row r="23" spans="1:24" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="94.90000000000002">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -2072,7 +2068,7 @@
       <c r="W23" s="16"/>
       <c r="X23" s="17"/>
     </row>
-    <row r="24" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="36">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
@@ -2106,7 +2102,7 @@
       <c r="W24" s="16"/>
       <c r="X24" s="17"/>
     </row>
-    <row r="25" spans="1:24" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="38.45">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -2140,7 +2136,7 @@
       <c r="W25" s="16"/>
       <c r="X25" s="17"/>
     </row>
-    <row r="26" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="51">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
@@ -2174,7 +2170,7 @@
       <c r="W26" s="16"/>
       <c r="X26" s="17"/>
     </row>
-    <row r="27" spans="1:24" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="83.45">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
@@ -2208,7 +2204,7 @@
       <c r="W27" s="16"/>
       <c r="X27" s="17"/>
     </row>
-    <row r="28" spans="1:24" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="43.70000000000001">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
@@ -2242,7 +2238,7 @@
       <c r="W28" s="16"/>
       <c r="X28" s="17"/>
     </row>
-    <row r="29" spans="1:24" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="36.6">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
@@ -2276,7 +2272,7 @@
       <c r="W29" s="16"/>
       <c r="X29" s="17"/>
     </row>
-    <row r="30" spans="1:24" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="43.15">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
@@ -2310,7 +2306,7 @@
       <c r="W30" s="16"/>
       <c r="X30" s="17"/>
     </row>
-    <row r="31" spans="1:24" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="100.90000000000002">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -2344,7 +2340,7 @@
       <c r="W31" s="16"/>
       <c r="X31" s="17"/>
     </row>
-    <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
@@ -2370,7 +2366,7 @@
       <c r="W32" s="16"/>
       <c r="X32" s="17"/>
     </row>
-    <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
@@ -2396,7 +2392,7 @@
       <c r="W33" s="16"/>
       <c r="X33" s="17"/>
     </row>
-    <row r="34" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
@@ -2422,7 +2418,7 @@
       <c r="W34" s="16"/>
       <c r="X34" s="17"/>
     </row>
-    <row r="35" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
@@ -2448,7 +2444,7 @@
       <c r="W35" s="16"/>
       <c r="X35" s="17"/>
     </row>
-    <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
@@ -2474,7 +2470,7 @@
       <c r="W36" s="16"/>
       <c r="X36" s="17"/>
     </row>
-    <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
@@ -2500,7 +2496,7 @@
       <c r="W37" s="16"/>
       <c r="X37" s="17"/>
     </row>
-    <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
@@ -2526,7 +2522,7 @@
       <c r="W38" s="16"/>
       <c r="X38" s="17"/>
     </row>
-    <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
@@ -2552,7 +2548,7 @@
       <c r="W39" s="16"/>
       <c r="X39" s="17"/>
     </row>
-    <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
@@ -2578,7 +2574,7 @@
       <c r="W40" s="16"/>
       <c r="X40" s="17"/>
     </row>
-    <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
@@ -2604,7 +2600,7 @@
       <c r="W41" s="16"/>
       <c r="X41" s="17"/>
     </row>
-    <row r="42" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
@@ -2630,7 +2626,7 @@
       <c r="W42" s="16"/>
       <c r="X42" s="17"/>
     </row>
-    <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
